--- a/data/trans_dic/P26_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,9</t>
+          <t>0,58; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,96</t>
+          <t>0,0; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,06</t>
+          <t>2,14; 9,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 23,21</t>
+          <t>5,97; 16,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 13,58</t>
+          <t>1,94; 41,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 16,15</t>
+          <t>0,5; 4,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 26,43</t>
+          <t>4,78; 11,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 44,21</t>
+          <t>5,94; 14,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,64</t>
+          <t>2,83; 9,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 11,73</t>
+          <t>4,67; 15,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 20,51</t>
+          <t>0,98; 3,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 35,65</t>
+          <t>3,04; 7,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 10,18</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 10,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 26,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 16,7</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,01</t>
+          <t>0,69; 6,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 19,52</t>
+          <t>1,83; 9,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 27,99</t>
+          <t>2,5; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 20,62</t>
+          <t>2,57; 10,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 22,66</t>
+          <t>2,25; 9,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 25,13</t>
+          <t>4,51; 12,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 22,48</t>
+          <t>6,82; 16,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,71</t>
+          <t>5,1; 15,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,46</t>
+          <t>4,5; 13,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 20,57</t>
+          <t>1,64; 5,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,82</t>
+          <t>3,33; 8,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 11,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 11,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 10,27</t>
         </is>
       </c>
     </row>
@@ -941,57 +1026,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,78%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 36,27</t>
+          <t>1,64; 26,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 36,7</t>
+          <t>0,0; 27,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 33,17</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 31,58</t>
+          <t>4,65; 26,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>4,44; 30,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 20,64</t>
+          <t>3,65; 26,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 26,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 27,22</t>
+          <t>1,46; 15,04</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 13,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 23,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 17,18</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,82</t>
+          <t>0,58; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,7</t>
+          <t>1,41; 5,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 14,65</t>
+          <t>2,26; 6,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 21,7</t>
+          <t>5,32; 11,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,68</t>
+          <t>3,6; 24,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,71</t>
+          <t>1,67; 5,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,28</t>
+          <t>5,04; 9,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,13</t>
+          <t>7,73; 13,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,52</t>
+          <t>5,35; 10,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,98</t>
+          <t>5,86; 12,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,37</t>
+          <t>1,38; 3,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,67</t>
+          <t>3,69; 6,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,62</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 10,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 16,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8606</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6183</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16659</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38694</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68139</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8294</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39410</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41472</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20998</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>50384</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16900</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45593</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>58130</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>59692</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>118523</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2127; 20509</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23519</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7830; 33773</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22739; 62561</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10013; 216443</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2171; 21170</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24238; 59323</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24993; 60083</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11540; 37132</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26331; 87185</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7859; 30789</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28445; 71636</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>40139; 80106</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41657; 82206</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>55202; 289970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9785</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14828</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18466</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23443</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16883</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33440</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36321</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34035</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20865</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43225</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51149</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>48721</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>57478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13382</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2483; 23385</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5811; 29904</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8049; 39252</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10580; 45123</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7860; 32844</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19176; 54790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22927; 55315</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17096; 50475</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19387; 56654</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10727; 38664</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26166; 68268</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>32225; 73781</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>32335; 76787</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>33547; 86605</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8803</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7185</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5858</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3238</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9923</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12591</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12936</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12041</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9923</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19777</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18795</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1668; 26661</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23473</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20875</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13140</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3791; 21339</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3669; 25167</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4063; 29903</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2961; 30519</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3585; 22120</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8310; 39468</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6374; 39641</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24771</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31487</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>64345</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97441</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>76088</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87716</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63845</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>97355</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>37765</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100859</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>119203</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>128190</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>194796</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4401; 28186</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12576; 46270</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17248; 53365</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41946; 92952</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37719; 252691</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14462; 44413</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52121; 102543</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64882; 113868</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44121; 90124</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64808; 136785</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22371; 57803</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71009; 132881</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>92389; 154142</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>99561; 169783</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>126022; 357540</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
